--- a/Учет контрольных/ПиОА По Z (Контрольная работа 3) DIV100.xlsx
+++ b/Учет контрольных/ПиОА По Z (Контрольная работа 3) DIV100.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -513,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
         <v>12</v>
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -637,13 +637,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
         <v>8</v>
@@ -669,7 +669,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
         <v>14</v>
@@ -715,13 +715,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G11" t="n">
         <v>7.000000000000001</v>
@@ -747,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
         <v>14</v>
@@ -793,13 +793,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
         <v>14</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
         <v>13</v>
@@ -923,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1007,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
         <v>14</v>
@@ -1027,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -1053,13 +1053,13 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G24" t="n">
         <v>7.000000000000001</v>
@@ -1105,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -1287,13 +1287,13 @@
         <v>13</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" t="n">
         <v>8</v>
@@ -1319,7 +1319,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" t="n">
         <v>12</v>
@@ -1423,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
         <v>14</v>
@@ -1449,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" t="n">
         <v>15</v>
@@ -1501,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
         <v>9</v>
@@ -1527,7 +1527,7 @@
         <v>14</v>
       </c>
       <c r="F42" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" t="n">
         <v>13</v>
@@ -1553,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" t="n">
         <v>14</v>
@@ -1625,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -1651,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -1683,7 +1683,7 @@
         <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" t="n">
         <v>13</v>
@@ -1729,13 +1729,13 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G50" t="n">
         <v>7.000000000000001</v>
@@ -1755,13 +1755,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
         <v>8</v>
@@ -1787,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G52" t="n">
         <v>7.000000000000001</v>
@@ -1839,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G54" t="n">
         <v>13</v>
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -1885,13 +1885,13 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G56" t="n">
         <v>7.000000000000001</v>
@@ -1917,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G57" t="n">
         <v>14</v>
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58" t="n">
         <v>13</v>
@@ -2021,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" t="n">
         <v>14</v>
@@ -2067,13 +2067,13 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2099,7 +2099,7 @@
         <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64" t="n">
         <v>13</v>
@@ -2125,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
         <v>10</v>
@@ -2151,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -2171,13 +2171,13 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>6</v>
@@ -2203,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G68" t="n">
         <v>14</v>
@@ -2249,7 +2249,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>7.000000000000001</v>
@@ -2275,13 +2275,13 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G71" t="n">
         <v>10</v>
@@ -2301,13 +2301,13 @@
         <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" t="n">
         <v>14</v>
       </c>
       <c r="F72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G72" t="n">
         <v>14</v>
@@ -2327,13 +2327,13 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
         <v>11</v>
@@ -2353,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" t="n">
         <v>11</v>
@@ -2385,7 +2385,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75" t="n">
         <v>15</v>
@@ -2411,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G76" t="n">
         <v>13</v>
@@ -2463,7 +2463,7 @@
         <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78" t="n">
         <v>10</v>
@@ -2489,7 +2489,7 @@
         <v>15</v>
       </c>
       <c r="F79" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G79" t="n">
         <v>14</v>
@@ -2509,13 +2509,13 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -2535,13 +2535,13 @@
         <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E81" t="n">
         <v>6</v>
       </c>
       <c r="F81" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -2561,13 +2561,13 @@
         <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
@@ -2613,13 +2613,13 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
         <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -2671,7 +2671,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
         <v>7.000000000000001</v>
@@ -2749,7 +2749,7 @@
         <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
         <v>14</v>
@@ -2769,13 +2769,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -2801,7 +2801,7 @@
         <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G91" t="n">
         <v>14</v>
@@ -2847,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -2879,7 +2879,7 @@
         <v>13</v>
       </c>
       <c r="F94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G94" t="n">
         <v>11</v>
@@ -2899,13 +2899,13 @@
         <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E95" t="n">
         <v>12</v>
       </c>
       <c r="F95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
         <v>11</v>
@@ -2925,13 +2925,13 @@
         <v>14</v>
       </c>
       <c r="D96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
         <v>14</v>
       </c>
       <c r="F96" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G96" t="n">
         <v>14</v>
@@ -2957,7 +2957,7 @@
         <v>15</v>
       </c>
       <c r="F97" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G97" t="n">
         <v>15</v>
@@ -2977,13 +2977,13 @@
         <v>12</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
         <v>11</v>
       </c>
       <c r="F98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" t="n">
         <v>10</v>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
         <v>3</v>
@@ -3035,7 +3035,7 @@
         <v>13</v>
       </c>
       <c r="F100" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G100" t="n">
         <v>11</v>
@@ -3061,7 +3061,7 @@
         <v>16</v>
       </c>
       <c r="F101" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G101" t="n">
         <v>16</v>
@@ -3139,7 +3139,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G104" t="n">
         <v>12</v>
@@ -3165,7 +3165,7 @@
         <v>11</v>
       </c>
       <c r="F105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105" t="n">
         <v>9</v>
@@ -3217,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107" t="n">
         <v>9</v>
@@ -3237,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -3263,13 +3263,13 @@
         <v>13</v>
       </c>
       <c r="D109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" t="n">
         <v>14</v>
       </c>
       <c r="F109" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G109" t="n">
         <v>14</v>
@@ -3295,7 +3295,7 @@
         <v>13</v>
       </c>
       <c r="F110" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G110" t="n">
         <v>12</v>
@@ -3321,7 +3321,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G111" t="n">
         <v>7.000000000000001</v>
@@ -3393,7 +3393,7 @@
         <v>10</v>
       </c>
       <c r="D114" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -3451,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="F116" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G116" t="n">
         <v>16</v>
@@ -3477,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G117" t="n">
         <v>7.000000000000001</v>
@@ -3497,13 +3497,13 @@
         <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G118" t="n">
         <v>9</v>
@@ -3529,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="F119" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G119" t="n">
         <v>11</v>
@@ -3549,13 +3549,13 @@
         <v>14</v>
       </c>
       <c r="D120" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E120" t="n">
         <v>14</v>
       </c>
       <c r="F120" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G120" t="n">
         <v>14</v>
@@ -3659,7 +3659,7 @@
         <v>9</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G124" t="n">
         <v>9</v>
@@ -3679,7 +3679,7 @@
         <v>13</v>
       </c>
       <c r="D125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -3705,13 +3705,13 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -3737,7 +3737,7 @@
         <v>15</v>
       </c>
       <c r="F127" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G127" t="n">
         <v>13</v>
@@ -3763,7 +3763,7 @@
         <v>16</v>
       </c>
       <c r="F128" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G128" t="n">
         <v>14</v>
@@ -3815,7 +3815,7 @@
         <v>15</v>
       </c>
       <c r="F130" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G130" t="n">
         <v>15</v>
@@ -3841,7 +3841,7 @@
         <v>15</v>
       </c>
       <c r="F131" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G131" t="n">
         <v>15</v>
@@ -3867,7 +3867,7 @@
         <v>14</v>
       </c>
       <c r="F132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G132" t="n">
         <v>14</v>
@@ -3887,13 +3887,13 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
         <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -3913,13 +3913,13 @@
         <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
       </c>
       <c r="F134" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -3965,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -3991,13 +3991,13 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
       </c>
       <c r="F137" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G137" t="n">
         <v>10</v>
@@ -4049,7 +4049,7 @@
         <v>16</v>
       </c>
       <c r="F139" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G139" t="n">
         <v>15</v>
@@ -4069,13 +4069,13 @@
         <v>12</v>
       </c>
       <c r="D140" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G140" t="n">
         <v>10</v>
@@ -4127,7 +4127,7 @@
         <v>8</v>
       </c>
       <c r="F142" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G142" t="n">
         <v>10</v>
@@ -4147,13 +4147,13 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="n">
         <v>12</v>
       </c>
       <c r="F143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G143" t="n">
         <v>12</v>
@@ -4173,13 +4173,13 @@
         <v>3</v>
       </c>
       <c r="D144" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
       </c>
       <c r="F144" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -4257,7 +4257,7 @@
         <v>15</v>
       </c>
       <c r="F147" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G147" t="n">
         <v>15</v>
@@ -4277,7 +4277,7 @@
         <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E148" t="n">
         <v>14</v>
@@ -4303,13 +4303,13 @@
         <v>14</v>
       </c>
       <c r="D149" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E149" t="n">
         <v>15</v>
       </c>
       <c r="F149" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G149" t="n">
         <v>15</v>
@@ -4329,13 +4329,13 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E150" t="n">
         <v>11</v>
       </c>
       <c r="F150" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G150" t="n">
         <v>11</v>
@@ -4355,13 +4355,13 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -4407,13 +4407,13 @@
         <v>9</v>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="n">
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G153" t="n">
         <v>10</v>
@@ -4439,7 +4439,7 @@
         <v>13</v>
       </c>
       <c r="F154" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G154" t="n">
         <v>12</v>
@@ -4491,7 +4491,7 @@
         <v>13</v>
       </c>
       <c r="F156" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G156" t="n">
         <v>11</v>
@@ -4517,7 +4517,7 @@
         <v>15</v>
       </c>
       <c r="F157" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G157" t="n">
         <v>14</v>
@@ -4543,7 +4543,7 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G158" t="n">
         <v>10</v>
@@ -4595,7 +4595,7 @@
         <v>14</v>
       </c>
       <c r="F160" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G160" t="n">
         <v>11</v>
@@ -4641,13 +4641,13 @@
         <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E162" t="n">
         <v>6</v>
       </c>
       <c r="F162" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G162" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         <v>8</v>
       </c>
       <c r="F165" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G165" t="n">
         <v>7.000000000000001</v>
@@ -4771,13 +4771,13 @@
         <v>11</v>
       </c>
       <c r="D167" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E167" t="n">
         <v>6</v>
       </c>
       <c r="F167" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G167" t="n">
         <v>7.000000000000001</v>
@@ -4829,7 +4829,7 @@
         <v>15</v>
       </c>
       <c r="F169" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G169" t="n">
         <v>15</v>
@@ -4855,7 +4855,7 @@
         <v>14</v>
       </c>
       <c r="F170" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G170" t="n">
         <v>12</v>
@@ -4901,13 +4901,13 @@
         <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G172" t="n">
         <v>9</v>
@@ -4927,13 +4927,13 @@
         <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E173" t="n">
         <v>11</v>
       </c>
       <c r="F173" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G173" t="n">
         <v>9</v>
@@ -4953,13 +4953,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>3</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
       </c>
       <c r="F174" t="n">
-        <v>7.000000000000001</v>
+        <v>4</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -4979,13 +4979,13 @@
         <v>15</v>
       </c>
       <c r="D175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E175" t="n">
         <v>14</v>
       </c>
       <c r="F175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175" t="n">
         <v>13</v>
@@ -5005,13 +5005,13 @@
         <v>14</v>
       </c>
       <c r="D176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E176" t="n">
         <v>12</v>
       </c>
       <c r="F176" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G176" t="n">
         <v>12</v>
@@ -5135,13 +5135,13 @@
         <v>16</v>
       </c>
       <c r="D181" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E181" t="n">
         <v>14</v>
       </c>
       <c r="F181" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G181" t="n">
         <v>14</v>
@@ -5161,13 +5161,13 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E182" t="n">
         <v>2</v>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G182" t="n">
         <v>5</v>
@@ -5187,13 +5187,13 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
       </c>
       <c r="F183" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G183" t="n">
         <v>4</v>
@@ -5213,13 +5213,13 @@
         <v>9</v>
       </c>
       <c r="D184" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="n">
         <v>11</v>
       </c>
       <c r="F184" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G184" t="n">
         <v>10</v>
@@ -5245,7 +5245,7 @@
         <v>15</v>
       </c>
       <c r="F185" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G185" t="n">
         <v>13</v>
@@ -5271,7 +5271,7 @@
         <v>16</v>
       </c>
       <c r="F186" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G186" t="n">
         <v>15</v>
@@ -5291,13 +5291,13 @@
         <v>5</v>
       </c>
       <c r="D187" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E187" t="n">
         <v>8</v>
       </c>
       <c r="F187" t="n">
-        <v>12</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G187" t="n">
         <v>9</v>
@@ -5317,13 +5317,13 @@
         <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
       </c>
       <c r="F188" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G188" t="n">
         <v>12</v>
@@ -5343,13 +5343,13 @@
         <v>14</v>
       </c>
       <c r="D189" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E189" t="n">
         <v>12</v>
       </c>
       <c r="F189" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G189" t="n">
         <v>11</v>
@@ -5369,13 +5369,13 @@
         <v>10</v>
       </c>
       <c r="D190" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E190" t="n">
         <v>11</v>
       </c>
       <c r="F190" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G190" t="n">
         <v>11</v>
@@ -5395,13 +5395,13 @@
         <v>15</v>
       </c>
       <c r="D191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E191" t="n">
         <v>12</v>
       </c>
       <c r="F191" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G191" t="n">
         <v>11</v>
@@ -5427,7 +5427,7 @@
         <v>14</v>
       </c>
       <c r="F192" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G192" t="n">
         <v>13</v>
@@ -5447,7 +5447,7 @@
         <v>16</v>
       </c>
       <c r="D193" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E193" t="n">
         <v>14</v>
@@ -5473,13 +5473,13 @@
         <v>15</v>
       </c>
       <c r="D194" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E194" t="n">
         <v>15</v>
       </c>
       <c r="F194" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G194" t="n">
         <v>14</v>
@@ -5505,7 +5505,7 @@
         <v>13</v>
       </c>
       <c r="F195" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G195" t="n">
         <v>14</v>
@@ -5531,7 +5531,7 @@
         <v>8</v>
       </c>
       <c r="F196" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G196" t="n">
         <v>8</v>
@@ -5609,7 +5609,7 @@
         <v>5</v>
       </c>
       <c r="F199" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G199" t="n">
         <v>7.000000000000001</v>
@@ -5629,13 +5629,13 @@
         <v>12</v>
       </c>
       <c r="D200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E200" t="n">
         <v>11</v>
       </c>
       <c r="F200" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G200" t="n">
         <v>11</v>
@@ -5687,7 +5687,7 @@
         <v>15</v>
       </c>
       <c r="F202" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G202" t="n">
         <v>12</v>
@@ -5713,7 +5713,7 @@
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G203" t="n">
         <v>9</v>
@@ -5739,7 +5739,7 @@
         <v>15</v>
       </c>
       <c r="F204" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G204" t="n">
         <v>13</v>
@@ -5759,13 +5759,13 @@
         <v>2</v>
       </c>
       <c r="D205" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
       </c>
       <c r="F205" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G205" t="n">
         <v>6</v>
@@ -5785,7 +5785,7 @@
         <v>13</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E206" t="n">
         <v>12</v>
@@ -5811,13 +5811,13 @@
         <v>9</v>
       </c>
       <c r="D207" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E207" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F207" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G207" t="n">
         <v>9</v>
@@ -5889,13 +5889,13 @@
         <v>13</v>
       </c>
       <c r="D210" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E210" t="n">
         <v>14</v>
       </c>
       <c r="F210" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G210" t="n">
         <v>15</v>
@@ -5915,7 +5915,7 @@
         <v>8</v>
       </c>
       <c r="D211" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E211" t="n">
         <v>12</v>
@@ -5941,13 +5941,13 @@
         <v>12</v>
       </c>
       <c r="D212" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E212" t="n">
         <v>11</v>
       </c>
       <c r="F212" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G212" t="n">
         <v>11</v>
@@ -5973,7 +5973,7 @@
         <v>14</v>
       </c>
       <c r="F213" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G213" t="n">
         <v>12</v>
@@ -5993,13 +5993,13 @@
         <v>13</v>
       </c>
       <c r="D214" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
       </c>
       <c r="F214" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G214" t="n">
         <v>12</v>
@@ -6019,7 +6019,7 @@
         <v>13</v>
       </c>
       <c r="D215" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E215" t="n">
         <v>14</v>
@@ -6045,13 +6045,13 @@
         <v>10</v>
       </c>
       <c r="D216" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
       </c>
       <c r="F216" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G216" t="n">
         <v>9</v>
@@ -6097,13 +6097,13 @@
         <v>4</v>
       </c>
       <c r="D218" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E218" t="n">
         <v>3</v>
       </c>
       <c r="F218" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -6129,7 +6129,7 @@
         <v>11</v>
       </c>
       <c r="F219" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G219" t="n">
         <v>10</v>
@@ -6175,13 +6175,13 @@
         <v>11</v>
       </c>
       <c r="D221" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E221" t="n">
         <v>11</v>
       </c>
       <c r="F221" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G221" t="n">
         <v>11</v>
@@ -6207,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="F222" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G222" t="n">
         <v>11</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -6331,7 +6331,7 @@
         <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E227" t="n">
         <v>11</v>
@@ -6357,13 +6357,13 @@
         <v>14</v>
       </c>
       <c r="D228" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
       </c>
       <c r="F228" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G228" t="n">
         <v>11</v>
@@ -6389,7 +6389,7 @@
         <v>13</v>
       </c>
       <c r="F229" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G229" t="n">
         <v>13</v>
@@ -6409,13 +6409,13 @@
         <v>4</v>
       </c>
       <c r="D230" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G230" t="n">
         <v>8</v>
@@ -6435,13 +6435,13 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E231" t="n">
         <v>9</v>
       </c>
       <c r="F231" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G231" t="n">
         <v>8</v>
@@ -6467,7 +6467,7 @@
         <v>16</v>
       </c>
       <c r="F232" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G232" t="n">
         <v>15</v>
@@ -6493,7 +6493,7 @@
         <v>15</v>
       </c>
       <c r="F233" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G233" t="n">
         <v>13</v>
@@ -6519,7 +6519,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F234" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G234" t="n">
         <v>8</v>
@@ -6545,7 +6545,7 @@
         <v>16</v>
       </c>
       <c r="F235" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G235" t="n">
         <v>16</v>
@@ -6565,13 +6565,13 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E236" t="n">
         <v>3</v>
       </c>
       <c r="F236" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G236" t="n">
         <v>5</v>
@@ -6591,13 +6591,13 @@
         <v>13</v>
       </c>
       <c r="D237" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E237" t="n">
         <v>14</v>
       </c>
       <c r="F237" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G237" t="n">
         <v>13</v>
@@ -6617,13 +6617,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E238" t="n">
         <v>2</v>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -6643,13 +6643,13 @@
         <v>4</v>
       </c>
       <c r="D239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -6675,7 +6675,7 @@
         <v>3</v>
       </c>
       <c r="F240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -6721,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="D242" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E242" t="n">
         <v>12</v>
@@ -6747,7 +6747,7 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -6799,13 +6799,13 @@
         <v>15</v>
       </c>
       <c r="D245" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E245" t="n">
         <v>14</v>
       </c>
       <c r="F245" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G245" t="n">
         <v>12</v>
@@ -6857,7 +6857,7 @@
         <v>14</v>
       </c>
       <c r="F247" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G247" t="n">
         <v>13</v>
@@ -6877,13 +6877,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D248" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
       </c>
       <c r="F248" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G248" t="n">
         <v>9</v>
@@ -6903,7 +6903,7 @@
         <v>14</v>
       </c>
       <c r="D249" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E249" t="n">
         <v>15</v>
@@ -6961,7 +6961,7 @@
         <v>15</v>
       </c>
       <c r="F251" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G251" t="n">
         <v>14</v>
@@ -6981,7 +6981,7 @@
         <v>15</v>
       </c>
       <c r="D252" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E252" t="n">
         <v>15</v>
@@ -7033,13 +7033,13 @@
         <v>8</v>
       </c>
       <c r="D254" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
       </c>
       <c r="F254" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G254" t="n">
         <v>9</v>
@@ -7059,7 +7059,7 @@
         <v>12</v>
       </c>
       <c r="D255" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -7091,7 +7091,7 @@
         <v>14</v>
       </c>
       <c r="F256" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G256" t="n">
         <v>13</v>
@@ -7117,7 +7117,7 @@
         <v>14</v>
       </c>
       <c r="F257" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G257" t="n">
         <v>11</v>
@@ -7137,13 +7137,13 @@
         <v>14</v>
       </c>
       <c r="D258" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
       </c>
       <c r="F258" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G258" t="n">
         <v>13</v>
@@ -7163,13 +7163,13 @@
         <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G259" t="n">
         <v>8</v>
@@ -7189,13 +7189,13 @@
         <v>15</v>
       </c>
       <c r="D260" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
       </c>
       <c r="F260" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G260" t="n">
         <v>14</v>
@@ -7221,7 +7221,7 @@
         <v>8</v>
       </c>
       <c r="F261" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G261" t="n">
         <v>8</v>
@@ -7293,13 +7293,13 @@
         <v>9</v>
       </c>
       <c r="D264" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
       </c>
       <c r="F264" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G264" t="n">
         <v>8</v>
@@ -7325,7 +7325,7 @@
         <v>3</v>
       </c>
       <c r="F265" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G265" t="n">
         <v>4</v>
@@ -7351,7 +7351,7 @@
         <v>14</v>
       </c>
       <c r="F266" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G266" t="n">
         <v>13</v>
@@ -7397,7 +7397,7 @@
         <v>13</v>
       </c>
       <c r="D268" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E268" t="n">
         <v>14</v>
@@ -7481,7 +7481,7 @@
         <v>14</v>
       </c>
       <c r="F271" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G271" t="n">
         <v>13</v>
@@ -7507,7 +7507,7 @@
         <v>13</v>
       </c>
       <c r="F272" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G272" t="n">
         <v>11</v>
@@ -7533,7 +7533,7 @@
         <v>15</v>
       </c>
       <c r="F273" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G273" t="n">
         <v>16</v>
@@ -7553,13 +7553,13 @@
         <v>10</v>
       </c>
       <c r="D274" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E274" t="n">
         <v>12</v>
       </c>
       <c r="F274" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G274" t="n">
         <v>11</v>
@@ -7637,7 +7637,7 @@
         <v>15</v>
       </c>
       <c r="F277" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G277" t="n">
         <v>14</v>
@@ -7663,7 +7663,7 @@
         <v>15</v>
       </c>
       <c r="F278" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G278" t="n">
         <v>14</v>
@@ -7689,7 +7689,7 @@
         <v>14</v>
       </c>
       <c r="F279" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G279" t="n">
         <v>13</v>
@@ -7735,13 +7735,13 @@
         <v>13</v>
       </c>
       <c r="D281" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E281" t="n">
         <v>15</v>
       </c>
       <c r="F281" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G281" t="n">
         <v>14</v>
@@ -7865,7 +7865,7 @@
         <v>13</v>
       </c>
       <c r="D286" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -7891,13 +7891,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D287" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E287" t="n">
         <v>11</v>
       </c>
       <c r="F287" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G287" t="n">
         <v>10</v>
@@ -7917,13 +7917,13 @@
         <v>16</v>
       </c>
       <c r="D288" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E288" t="n">
         <v>11</v>
       </c>
       <c r="F288" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G288" t="n">
         <v>11</v>
@@ -8047,13 +8047,13 @@
         <v>10</v>
       </c>
       <c r="D293" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E293" t="n">
         <v>12</v>
       </c>
       <c r="F293" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G293" t="n">
         <v>10</v>
@@ -8079,7 +8079,7 @@
         <v>11</v>
       </c>
       <c r="F294" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G294" t="n">
         <v>10</v>
@@ -8105,7 +8105,7 @@
         <v>15</v>
       </c>
       <c r="F295" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G295" t="n">
         <v>13</v>
@@ -8131,7 +8131,7 @@
         <v>16</v>
       </c>
       <c r="F296" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G296" t="n">
         <v>15</v>
@@ -8151,13 +8151,13 @@
         <v>14</v>
       </c>
       <c r="D297" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
       </c>
       <c r="F297" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G297" t="n">
         <v>13</v>
@@ -8183,7 +8183,7 @@
         <v>13</v>
       </c>
       <c r="F298" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G298" t="n">
         <v>11</v>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="D299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E299" t="n">
         <v>1</v>
@@ -8235,7 +8235,7 @@
         <v>11</v>
       </c>
       <c r="F300" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G300" t="n">
         <v>10</v>
@@ -8261,7 +8261,7 @@
         <v>15</v>
       </c>
       <c r="F301" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G301" t="n">
         <v>14</v>
@@ -8313,7 +8313,7 @@
         <v>15</v>
       </c>
       <c r="F303" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G303" t="n">
         <v>15</v>
@@ -8333,7 +8333,7 @@
         <v>13</v>
       </c>
       <c r="D304" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E304" t="n">
         <v>14</v>
@@ -8359,7 +8359,7 @@
         <v>3</v>
       </c>
       <c r="D305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E305" t="n">
         <v>2</v>
@@ -8391,7 +8391,7 @@
         <v>15</v>
       </c>
       <c r="F306" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G306" t="n">
         <v>14</v>
@@ -8417,7 +8417,7 @@
         <v>14</v>
       </c>
       <c r="F307" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G307" t="n">
         <v>13</v>
@@ -8443,7 +8443,7 @@
         <v>9</v>
       </c>
       <c r="F308" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G308" t="n">
         <v>9</v>
@@ -8463,7 +8463,7 @@
         <v>15</v>
       </c>
       <c r="D309" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -8495,7 +8495,7 @@
         <v>15</v>
       </c>
       <c r="F310" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G310" t="n">
         <v>16</v>
@@ -8547,7 +8547,7 @@
         <v>14</v>
       </c>
       <c r="F312" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G312" t="n">
         <v>14</v>
@@ -8573,7 +8573,7 @@
         <v>6</v>
       </c>
       <c r="F313" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G313" t="n">
         <v>6</v>
@@ -8593,13 +8593,13 @@
         <v>11</v>
       </c>
       <c r="D314" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G314" t="n">
         <v>10</v>
@@ -8619,13 +8619,13 @@
         <v>5</v>
       </c>
       <c r="D315" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E315" t="n">
         <v>6</v>
       </c>
       <c r="F315" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G315" t="n">
         <v>5</v>
@@ -8697,13 +8697,13 @@
         <v>14</v>
       </c>
       <c r="D318" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
       </c>
       <c r="F318" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G318" t="n">
         <v>14</v>
@@ -8729,7 +8729,7 @@
         <v>6</v>
       </c>
       <c r="F319" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G319" t="n">
         <v>6</v>
@@ -8755,7 +8755,7 @@
         <v>15</v>
       </c>
       <c r="F320" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G320" t="n">
         <v>14</v>
@@ -8781,7 +8781,7 @@
         <v>15</v>
       </c>
       <c r="F321" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G321" t="n">
         <v>14</v>
@@ -8801,13 +8801,13 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E322" t="n">
         <v>11</v>
       </c>
       <c r="F322" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G322" t="n">
         <v>10</v>
@@ -8911,7 +8911,7 @@
         <v>14</v>
       </c>
       <c r="F326" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G326" t="n">
         <v>12</v>
@@ -8937,7 +8937,7 @@
         <v>15</v>
       </c>
       <c r="F327" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G327" t="n">
         <v>14</v>
@@ -8957,13 +8957,13 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E328" t="n">
         <v>11</v>
       </c>
       <c r="F328" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G328" t="n">
         <v>10</v>
@@ -8989,7 +8989,7 @@
         <v>16</v>
       </c>
       <c r="F329" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G329" t="n">
         <v>16</v>
@@ -9009,7 +9009,7 @@
         <v>10</v>
       </c>
       <c r="D330" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E330" t="n">
         <v>12</v>
@@ -9041,7 +9041,7 @@
         <v>15</v>
       </c>
       <c r="F331" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G331" t="n">
         <v>15</v>
@@ -9067,7 +9067,7 @@
         <v>15</v>
       </c>
       <c r="F332" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G332" t="n">
         <v>14</v>
@@ -9145,7 +9145,7 @@
         <v>14</v>
       </c>
       <c r="F335" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G335" t="n">
         <v>13</v>
@@ -9191,13 +9191,13 @@
         <v>9</v>
       </c>
       <c r="D337" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
       </c>
       <c r="F337" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G337" t="n">
         <v>8</v>
@@ -9275,7 +9275,7 @@
         <v>16</v>
       </c>
       <c r="F340" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G340" t="n">
         <v>14</v>
@@ -9321,13 +9321,13 @@
         <v>13</v>
       </c>
       <c r="D342" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E342" t="n">
         <v>12</v>
       </c>
       <c r="F342" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G342" t="n">
         <v>11</v>
@@ -9347,13 +9347,13 @@
         <v>1</v>
       </c>
       <c r="D343" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
       </c>
       <c r="F343" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
@@ -9405,7 +9405,7 @@
         <v>16</v>
       </c>
       <c r="F345" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G345" t="n">
         <v>14</v>
@@ -9451,13 +9451,13 @@
         <v>12</v>
       </c>
       <c r="D347" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
       </c>
       <c r="F347" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G347" t="n">
         <v>12</v>
@@ -9561,7 +9561,7 @@
         <v>15</v>
       </c>
       <c r="F351" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G351" t="n">
         <v>14</v>
@@ -9581,7 +9581,7 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9607,13 +9607,13 @@
         <v>13</v>
       </c>
       <c r="D353" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E353" t="n">
         <v>14</v>
       </c>
       <c r="F353" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G353" t="n">
         <v>12</v>
@@ -9639,7 +9639,7 @@
         <v>16</v>
       </c>
       <c r="F354" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G354" t="n">
         <v>15</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="D355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E355" t="n">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>11</v>
       </c>
       <c r="D357" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -9737,13 +9737,13 @@
         <v>4</v>
       </c>
       <c r="D358" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E358" t="n">
         <v>6</v>
       </c>
       <c r="F358" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G358" t="n">
         <v>7.000000000000001</v>
@@ -9769,7 +9769,7 @@
         <v>14</v>
       </c>
       <c r="F359" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G359" t="n">
         <v>13</v>
@@ -9841,13 +9841,13 @@
         <v>5</v>
       </c>
       <c r="D362" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
       </c>
       <c r="F362" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G362" t="n">
         <v>7.000000000000001</v>
@@ -9899,7 +9899,7 @@
         <v>8</v>
       </c>
       <c r="F364" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G364" t="n">
         <v>10</v>
@@ -9945,13 +9945,13 @@
         <v>2</v>
       </c>
       <c r="D366" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E366" t="n">
         <v>2</v>
       </c>
       <c r="F366" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G366" t="n">
         <v>3</v>
@@ -9977,7 +9977,7 @@
         <v>13</v>
       </c>
       <c r="F367" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G367" t="n">
         <v>12</v>
@@ -9997,7 +9997,7 @@
         <v>9</v>
       </c>
       <c r="D368" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -10023,7 +10023,7 @@
         <v>4</v>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E369" t="n">
         <v>3</v>
@@ -10049,7 +10049,7 @@
         <v>14</v>
       </c>
       <c r="D370" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E370" t="n">
         <v>12</v>
@@ -10075,13 +10075,13 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E371" t="n">
         <v>12</v>
       </c>
       <c r="F371" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G371" t="n">
         <v>9</v>
@@ -10101,13 +10101,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D372" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E372" t="n">
         <v>11</v>
       </c>
       <c r="F372" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G372" t="n">
         <v>9</v>
@@ -10127,7 +10127,7 @@
         <v>12</v>
       </c>
       <c r="D373" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -10153,13 +10153,13 @@
         <v>14</v>
       </c>
       <c r="D374" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
       </c>
       <c r="F374" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G374" t="n">
         <v>11</v>
@@ -10179,7 +10179,7 @@
         <v>13</v>
       </c>
       <c r="D375" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E375" t="n">
         <v>12</v>
@@ -10205,13 +10205,13 @@
         <v>10</v>
       </c>
       <c r="D376" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
       </c>
       <c r="F376" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G376" t="n">
         <v>10</v>
@@ -10231,13 +10231,13 @@
         <v>10</v>
       </c>
       <c r="D377" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
       </c>
       <c r="F377" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G377" t="n">
         <v>6</v>
@@ -10257,7 +10257,7 @@
         <v>13</v>
       </c>
       <c r="D378" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -10283,13 +10283,13 @@
         <v>12</v>
       </c>
       <c r="D379" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
       </c>
       <c r="F379" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G379" t="n">
         <v>9</v>
@@ -10413,13 +10413,13 @@
         <v>13</v>
       </c>
       <c r="D384" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G384" t="n">
         <v>9</v>
@@ -10465,13 +10465,13 @@
         <v>14</v>
       </c>
       <c r="D386" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
       </c>
       <c r="F386" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G386" t="n">
         <v>13</v>
@@ -10491,7 +10491,7 @@
         <v>10</v>
       </c>
       <c r="D387" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
@@ -10517,13 +10517,13 @@
         <v>9</v>
       </c>
       <c r="D388" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G388" t="n">
         <v>9</v>
@@ -10549,7 +10549,7 @@
         <v>11</v>
       </c>
       <c r="F389" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G389" t="n">
         <v>11</v>
@@ -10575,7 +10575,7 @@
         <v>10</v>
       </c>
       <c r="F390" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G390" t="n">
         <v>10</v>
@@ -10595,13 +10595,13 @@
         <v>13</v>
       </c>
       <c r="D391" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
       </c>
       <c r="F391" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G391" t="n">
         <v>9</v>
@@ -10627,7 +10627,7 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G392" t="n">
         <v>9</v>
@@ -10647,13 +10647,13 @@
         <v>4</v>
       </c>
       <c r="D393" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
       </c>
       <c r="F393" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G393" t="n">
         <v>6</v>
@@ -10673,13 +10673,13 @@
         <v>13</v>
       </c>
       <c r="D394" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
       </c>
       <c r="F394" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G394" t="n">
         <v>10</v>
@@ -10699,7 +10699,7 @@
         <v>12</v>
       </c>
       <c r="D395" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E395" t="n">
         <v>11</v>
@@ -10731,7 +10731,7 @@
         <v>11</v>
       </c>
       <c r="F396" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G396" t="n">
         <v>11</v>
@@ -10777,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="D398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E398" t="n">
         <v>2</v>
@@ -10803,13 +10803,13 @@
         <v>12</v>
       </c>
       <c r="D399" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E399" t="n">
         <v>11</v>
       </c>
       <c r="F399" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G399" t="n">
         <v>10</v>
@@ -10835,7 +10835,7 @@
         <v>13</v>
       </c>
       <c r="F400" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G400" t="n">
         <v>10</v>
@@ -10855,13 +10855,13 @@
         <v>11</v>
       </c>
       <c r="D401" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E401" t="n">
         <v>11</v>
       </c>
       <c r="F401" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G401" t="n">
         <v>10</v>
@@ -10881,13 +10881,13 @@
         <v>10</v>
       </c>
       <c r="D402" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E402" t="n">
         <v>6</v>
       </c>
       <c r="F402" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G402" t="n">
         <v>7.000000000000001</v>
@@ -10913,7 +10913,7 @@
         <v>14</v>
       </c>
       <c r="F403" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G403" t="n">
         <v>12</v>
@@ -10939,7 +10939,7 @@
         <v>15</v>
       </c>
       <c r="F404" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G404" t="n">
         <v>13</v>
@@ -10985,7 +10985,7 @@
         <v>14</v>
       </c>
       <c r="D406" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -11011,7 +11011,7 @@
         <v>13</v>
       </c>
       <c r="D407" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E407" t="n">
         <v>14</v>
@@ -11063,7 +11063,7 @@
         <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -11121,7 +11121,7 @@
         <v>11</v>
       </c>
       <c r="F411" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G411" t="n">
         <v>11</v>
@@ -11141,13 +11141,13 @@
         <v>8</v>
       </c>
       <c r="D412" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G412" t="n">
         <v>8</v>
@@ -11167,13 +11167,13 @@
         <v>12</v>
       </c>
       <c r="D413" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
       </c>
       <c r="F413" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G413" t="n">
         <v>8</v>
@@ -11219,13 +11219,13 @@
         <v>3</v>
       </c>
       <c r="D415" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E415" t="n">
         <v>11</v>
       </c>
       <c r="F415" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G415" t="n">
         <v>8</v>
@@ -11303,7 +11303,7 @@
         <v>9</v>
       </c>
       <c r="F418" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G418" t="n">
         <v>9</v>
@@ -11355,7 +11355,7 @@
         <v>16</v>
       </c>
       <c r="F420" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G420" t="n">
         <v>15</v>
@@ -11375,13 +11375,13 @@
         <v>10</v>
       </c>
       <c r="D421" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G421" t="n">
         <v>11</v>
@@ -11401,7 +11401,7 @@
         <v>13</v>
       </c>
       <c r="D422" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E422" t="n">
         <v>12</v>
@@ -11453,13 +11453,13 @@
         <v>14</v>
       </c>
       <c r="D424" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E424" t="n">
         <v>14</v>
       </c>
       <c r="F424" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G424" t="n">
         <v>14</v>
@@ -11485,7 +11485,7 @@
         <v>13</v>
       </c>
       <c r="F425" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G425" t="n">
         <v>12</v>
@@ -11505,7 +11505,7 @@
         <v>8</v>
       </c>
       <c r="D426" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E426" t="n">
         <v>11</v>
@@ -11537,7 +11537,7 @@
         <v>16</v>
       </c>
       <c r="F427" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G427" t="n">
         <v>15</v>
@@ -11563,7 +11563,7 @@
         <v>13</v>
       </c>
       <c r="F428" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G428" t="n">
         <v>13</v>
@@ -11589,7 +11589,7 @@
         <v>15</v>
       </c>
       <c r="F429" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G429" t="n">
         <v>15</v>
@@ -11615,7 +11615,7 @@
         <v>2</v>
       </c>
       <c r="F430" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -11661,13 +11661,13 @@
         <v>12</v>
       </c>
       <c r="D432" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E432" t="n">
         <v>12</v>
       </c>
       <c r="F432" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G432" t="n">
         <v>11</v>
@@ -11713,7 +11713,7 @@
         <v>15</v>
       </c>
       <c r="D434" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E434" t="n">
         <v>12</v>
@@ -11739,7 +11739,7 @@
         <v>11</v>
       </c>
       <c r="D435" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E435" t="n">
         <v>11</v>
@@ -11765,7 +11765,7 @@
         <v>13</v>
       </c>
       <c r="D436" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -11791,13 +11791,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D437" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E437" t="n">
         <v>6</v>
       </c>
       <c r="F437" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G437" t="n">
         <v>6</v>
@@ -11817,13 +11817,13 @@
         <v>10</v>
       </c>
       <c r="D438" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E438" t="n">
         <v>12</v>
       </c>
       <c r="F438" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G438" t="n">
         <v>12</v>
@@ -11843,13 +11843,13 @@
         <v>14</v>
       </c>
       <c r="D439" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
       </c>
       <c r="F439" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G439" t="n">
         <v>13</v>
@@ -11869,7 +11869,7 @@
         <v>9</v>
       </c>
       <c r="D440" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E440" t="n">
         <v>7.000000000000001</v>
@@ -11901,7 +11901,7 @@
         <v>11</v>
       </c>
       <c r="F441" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G441" t="n">
         <v>10</v>
@@ -11921,13 +11921,13 @@
         <v>8</v>
       </c>
       <c r="D442" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
       </c>
       <c r="F442" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G442" t="n">
         <v>8</v>
@@ -11973,13 +11973,13 @@
         <v>15</v>
       </c>
       <c r="D444" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E444" t="n">
         <v>14</v>
       </c>
       <c r="F444" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G444" t="n">
         <v>14</v>
@@ -11999,7 +11999,7 @@
         <v>13</v>
       </c>
       <c r="D445" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E445" t="n">
         <v>14</v>
@@ -12051,13 +12051,13 @@
         <v>8</v>
       </c>
       <c r="D447" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E447" t="n">
         <v>11</v>
       </c>
       <c r="F447" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G447" t="n">
         <v>11</v>
@@ -12077,13 +12077,13 @@
         <v>14</v>
       </c>
       <c r="D448" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E448" t="n">
         <v>14</v>
       </c>
       <c r="F448" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G448" t="n">
         <v>13</v>
@@ -12109,7 +12109,7 @@
         <v>14</v>
       </c>
       <c r="F449" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G449" t="n">
         <v>13</v>
@@ -12181,13 +12181,13 @@
         <v>11</v>
       </c>
       <c r="D452" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
       </c>
       <c r="F452" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G452" t="n">
         <v>10</v>
@@ -12207,7 +12207,7 @@
         <v>12</v>
       </c>
       <c r="D453" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -12265,7 +12265,7 @@
         <v>16</v>
       </c>
       <c r="F455" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G455" t="n">
         <v>14</v>
@@ -12317,7 +12317,7 @@
         <v>9</v>
       </c>
       <c r="F457" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G457" t="n">
         <v>9</v>
@@ -12343,7 +12343,7 @@
         <v>14</v>
       </c>
       <c r="F458" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G458" t="n">
         <v>14</v>
@@ -12369,7 +12369,7 @@
         <v>15</v>
       </c>
       <c r="F459" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G459" t="n">
         <v>15</v>
@@ -12389,13 +12389,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D460" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E460" t="n">
         <v>6</v>
       </c>
       <c r="F460" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G460" t="n">
         <v>7.000000000000001</v>
@@ -12467,13 +12467,13 @@
         <v>13</v>
       </c>
       <c r="D463" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E463" t="n">
         <v>11</v>
       </c>
       <c r="F463" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G463" t="n">
         <v>11</v>
@@ -12519,13 +12519,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D465" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E465" t="n">
         <v>9</v>
       </c>
       <c r="F465" t="n">
-        <v>12</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G465" t="n">
         <v>9</v>
@@ -12571,13 +12571,13 @@
         <v>1</v>
       </c>
       <c r="D467" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
       </c>
       <c r="F467" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G467" t="n">
         <v>5</v>
@@ -12597,13 +12597,13 @@
         <v>1</v>
       </c>
       <c r="D468" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E468" t="n">
         <v>2</v>
       </c>
       <c r="F468" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -12629,7 +12629,7 @@
         <v>15</v>
       </c>
       <c r="F469" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G469" t="n">
         <v>13</v>
@@ -12655,7 +12655,7 @@
         <v>13</v>
       </c>
       <c r="F470" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G470" t="n">
         <v>12</v>
@@ -12675,13 +12675,13 @@
         <v>10</v>
       </c>
       <c r="D471" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E471" t="n">
         <v>11</v>
       </c>
       <c r="F471" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G471" t="n">
         <v>10</v>
@@ -12701,7 +12701,7 @@
         <v>12</v>
       </c>
       <c r="D472" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E472" t="n">
         <v>14</v>
@@ -12759,7 +12759,7 @@
         <v>14</v>
       </c>
       <c r="F474" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G474" t="n">
         <v>12</v>
@@ -12785,7 +12785,7 @@
         <v>14</v>
       </c>
       <c r="F475" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G475" t="n">
         <v>12</v>
@@ -12805,13 +12805,13 @@
         <v>11</v>
       </c>
       <c r="D476" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
       </c>
       <c r="F476" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G476" t="n">
         <v>13</v>
@@ -12857,13 +12857,13 @@
         <v>8</v>
       </c>
       <c r="D478" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E478" t="n">
         <v>8</v>
       </c>
       <c r="F478" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G478" t="n">
         <v>8</v>
@@ -12883,13 +12883,13 @@
         <v>12</v>
       </c>
       <c r="D479" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E479" t="n">
         <v>9</v>
       </c>
       <c r="F479" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G479" t="n">
         <v>9</v>
@@ -12915,7 +12915,7 @@
         <v>15</v>
       </c>
       <c r="F480" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G480" t="n">
         <v>15</v>
@@ -12941,7 +12941,7 @@
         <v>2</v>
       </c>
       <c r="F481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G481" t="n">
         <v>3</v>
@@ -12987,7 +12987,7 @@
         <v>10</v>
       </c>
       <c r="D483" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E483" t="n">
         <v>11</v>
@@ -13019,7 +13019,7 @@
         <v>14</v>
       </c>
       <c r="F484" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G484" t="n">
         <v>13</v>
@@ -13071,7 +13071,7 @@
         <v>15</v>
       </c>
       <c r="F486" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G486" t="n">
         <v>15</v>
@@ -13091,7 +13091,7 @@
         <v>10</v>
       </c>
       <c r="D487" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E487" t="n">
         <v>9</v>
@@ -13117,13 +13117,13 @@
         <v>10</v>
       </c>
       <c r="D488" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E488" t="n">
         <v>9</v>
       </c>
       <c r="F488" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G488" t="n">
         <v>10</v>
@@ -13149,7 +13149,7 @@
         <v>14</v>
       </c>
       <c r="F489" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G489" t="n">
         <v>14</v>
@@ -13201,7 +13201,7 @@
         <v>10</v>
       </c>
       <c r="F491" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G491" t="n">
         <v>11</v>
@@ -13221,13 +13221,13 @@
         <v>0</v>
       </c>
       <c r="D492" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E492" t="n">
         <v>3</v>
       </c>
       <c r="F492" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G492" t="n">
         <v>5</v>
@@ -13247,13 +13247,13 @@
         <v>12</v>
       </c>
       <c r="D493" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E493" t="n">
         <v>9</v>
       </c>
       <c r="F493" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G493" t="n">
         <v>8</v>
@@ -13279,7 +13279,7 @@
         <v>14</v>
       </c>
       <c r="F494" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G494" t="n">
         <v>13</v>
@@ -13299,13 +13299,13 @@
         <v>9</v>
       </c>
       <c r="D495" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E495" t="n">
         <v>12</v>
       </c>
       <c r="F495" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G495" t="n">
         <v>10</v>
@@ -13357,7 +13357,7 @@
         <v>15</v>
       </c>
       <c r="F497" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G497" t="n">
         <v>13</v>
@@ -13377,13 +13377,13 @@
         <v>8</v>
       </c>
       <c r="D498" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
       </c>
       <c r="F498" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G498" t="n">
         <v>7.000000000000001</v>
@@ -13409,7 +13409,7 @@
         <v>6</v>
       </c>
       <c r="F499" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G499" t="n">
         <v>6</v>
@@ -13435,7 +13435,7 @@
         <v>15</v>
       </c>
       <c r="F500" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G500" t="n">
         <v>14</v>
@@ -13461,7 +13461,7 @@
         <v>15</v>
       </c>
       <c r="F501" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G501" t="n">
         <v>15</v>
@@ -13487,7 +13487,7 @@
         <v>14</v>
       </c>
       <c r="F502" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G502" t="n">
         <v>12</v>
@@ -13507,7 +13507,7 @@
         <v>2</v>
       </c>
       <c r="D503" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -13617,7 +13617,7 @@
         <v>11</v>
       </c>
       <c r="F507" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G507" t="n">
         <v>10</v>
@@ -13637,13 +13637,13 @@
         <v>4</v>
       </c>
       <c r="D508" t="n">
-        <v>5</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
       </c>
       <c r="F508" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G508" t="n">
         <v>3</v>
@@ -13663,7 +13663,7 @@
         <v>9</v>
       </c>
       <c r="D509" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E509" t="n">
         <v>11</v>
@@ -13689,7 +13689,7 @@
         <v>10</v>
       </c>
       <c r="D510" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E510" t="n">
         <v>11</v>
@@ -13715,7 +13715,7 @@
         <v>15</v>
       </c>
       <c r="D511" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E511" t="n">
         <v>12</v>
@@ -13767,7 +13767,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D513" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13793,13 +13793,13 @@
         <v>10</v>
       </c>
       <c r="D514" t="n">
+        <v>8</v>
+      </c>
+      <c r="E514" t="n">
+        <v>8</v>
+      </c>
+      <c r="F514" t="n">
         <v>6</v>
-      </c>
-      <c r="E514" t="n">
-        <v>8</v>
-      </c>
-      <c r="F514" t="n">
-        <v>9</v>
       </c>
       <c r="G514" t="n">
         <v>8</v>
@@ -13845,7 +13845,7 @@
         <v>16</v>
       </c>
       <c r="D516" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E516" t="n">
         <v>15</v>
@@ -13871,7 +13871,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D517" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -13897,7 +13897,7 @@
         <v>5</v>
       </c>
       <c r="D518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E518" t="n">
         <v>2</v>
@@ -13923,13 +13923,13 @@
         <v>9</v>
       </c>
       <c r="D519" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E519" t="n">
         <v>9</v>
       </c>
       <c r="F519" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G519" t="n">
         <v>9</v>
@@ -13949,7 +13949,7 @@
         <v>15</v>
       </c>
       <c r="D520" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E520" t="n">
         <v>15</v>
@@ -13981,7 +13981,7 @@
         <v>12</v>
       </c>
       <c r="F521" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G521" t="n">
         <v>11</v>
@@ -14007,7 +14007,7 @@
         <v>14</v>
       </c>
       <c r="F522" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G522" t="n">
         <v>15</v>
@@ -14033,7 +14033,7 @@
         <v>15</v>
       </c>
       <c r="F523" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G523" t="n">
         <v>13</v>
@@ -14085,7 +14085,7 @@
         <v>14</v>
       </c>
       <c r="F525" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G525" t="n">
         <v>13</v>
@@ -14131,13 +14131,13 @@
         <v>2</v>
       </c>
       <c r="D527" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E527" t="n">
         <v>6</v>
       </c>
       <c r="F527" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G527" t="n">
         <v>5</v>
@@ -14163,7 +14163,7 @@
         <v>15</v>
       </c>
       <c r="F528" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G528" t="n">
         <v>13</v>
@@ -14183,13 +14183,13 @@
         <v>6</v>
       </c>
       <c r="D529" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
       </c>
       <c r="F529" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G529" t="n">
         <v>7.000000000000001</v>
@@ -14313,13 +14313,13 @@
         <v>12</v>
       </c>
       <c r="D534" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E534" t="n">
         <v>10</v>
       </c>
       <c r="F534" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G534" t="n">
         <v>11</v>
@@ -14339,13 +14339,13 @@
         <v>9</v>
       </c>
       <c r="D535" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E535" t="n">
         <v>10</v>
       </c>
       <c r="F535" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G535" t="n">
         <v>10</v>
@@ -14391,7 +14391,7 @@
         <v>12</v>
       </c>
       <c r="D537" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E537" t="n">
         <v>12</v>
@@ -14475,7 +14475,7 @@
         <v>14</v>
       </c>
       <c r="F540" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G540" t="n">
         <v>12</v>
@@ -14501,7 +14501,7 @@
         <v>15</v>
       </c>
       <c r="F541" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G541" t="n">
         <v>14</v>
@@ -14527,7 +14527,7 @@
         <v>13</v>
       </c>
       <c r="F542" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G542" t="n">
         <v>12</v>
@@ -14605,7 +14605,7 @@
         <v>11</v>
       </c>
       <c r="F545" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G545" t="n">
         <v>9</v>
@@ -14735,7 +14735,7 @@
         <v>11</v>
       </c>
       <c r="F550" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G550" t="n">
         <v>12</v>
@@ -14787,7 +14787,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F552" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G552" t="n">
         <v>7.000000000000001</v>
@@ -14813,7 +14813,7 @@
         <v>13</v>
       </c>
       <c r="F553" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G553" t="n">
         <v>11</v>
@@ -14865,7 +14865,7 @@
         <v>16</v>
       </c>
       <c r="F555" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G555" t="n">
         <v>16</v>
@@ -14891,7 +14891,7 @@
         <v>15</v>
       </c>
       <c r="F556" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G556" t="n">
         <v>14</v>
@@ -14937,7 +14937,7 @@
         <v>11</v>
       </c>
       <c r="D558" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E558" t="n">
         <v>7.000000000000001</v>
@@ -14963,7 +14963,7 @@
         <v>15</v>
       </c>
       <c r="D559" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E559" t="n">
         <v>14</v>
@@ -15015,13 +15015,13 @@
         <v>8</v>
       </c>
       <c r="D561" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E561" t="n">
         <v>11</v>
       </c>
       <c r="F561" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G561" t="n">
         <v>10</v>
@@ -15041,13 +15041,13 @@
         <v>5</v>
       </c>
       <c r="D562" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E562" t="n">
         <v>6</v>
       </c>
       <c r="F562" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G562" t="n">
         <v>7.000000000000001</v>
@@ -15073,7 +15073,7 @@
         <v>15</v>
       </c>
       <c r="F563" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G563" t="n">
         <v>14</v>
@@ -15119,13 +15119,13 @@
         <v>12</v>
       </c>
       <c r="D565" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E565" t="n">
         <v>9</v>
       </c>
       <c r="F565" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G565" t="n">
         <v>9</v>
@@ -15151,7 +15151,7 @@
         <v>15</v>
       </c>
       <c r="F566" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G566" t="n">
         <v>13</v>
@@ -15171,13 +15171,13 @@
         <v>12</v>
       </c>
       <c r="D567" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E567" t="n">
         <v>12</v>
       </c>
       <c r="F567" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G567" t="n">
         <v>11</v>
@@ -15197,13 +15197,13 @@
         <v>10</v>
       </c>
       <c r="D568" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E568" t="n">
         <v>9</v>
       </c>
       <c r="F568" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G568" t="n">
         <v>9</v>
@@ -15223,13 +15223,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D569" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E569" t="n">
         <v>3</v>
       </c>
       <c r="F569" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G569" t="n">
         <v>5</v>
@@ -15255,7 +15255,7 @@
         <v>15</v>
       </c>
       <c r="F570" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G570" t="n">
         <v>14</v>
@@ -15275,7 +15275,7 @@
         <v>13</v>
       </c>
       <c r="D571" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -15327,13 +15327,13 @@
         <v>6</v>
       </c>
       <c r="D573" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E573" t="n">
         <v>3</v>
       </c>
       <c r="F573" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G573" t="n">
         <v>4</v>
@@ -15353,13 +15353,13 @@
         <v>4</v>
       </c>
       <c r="D574" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E574" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F574" t="n">
-        <v>3</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G574" t="n">
         <v>7.000000000000001</v>
@@ -15379,13 +15379,13 @@
         <v>12</v>
       </c>
       <c r="D575" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E575" t="n">
         <v>12</v>
       </c>
       <c r="F575" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G575" t="n">
         <v>11</v>
@@ -15411,7 +15411,7 @@
         <v>3</v>
       </c>
       <c r="F576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G576" t="n">
         <v>2</v>
@@ -15431,7 +15431,7 @@
         <v>10</v>
       </c>
       <c r="D577" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E577" t="n">
         <v>14</v>
@@ -15457,13 +15457,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D578" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E578" t="n">
         <v>3</v>
       </c>
       <c r="F578" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G578" t="n">
         <v>4</v>
@@ -15535,7 +15535,7 @@
         <v>13</v>
       </c>
       <c r="D581" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -15613,7 +15613,7 @@
         <v>13</v>
       </c>
       <c r="D584" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -15723,7 +15723,7 @@
         <v>15</v>
       </c>
       <c r="F588" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G588" t="n">
         <v>14</v>
@@ -15749,7 +15749,7 @@
         <v>16</v>
       </c>
       <c r="F589" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G589" t="n">
         <v>17</v>
@@ -15775,7 +15775,7 @@
         <v>9</v>
       </c>
       <c r="F590" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G590" t="n">
         <v>8</v>
@@ -15795,7 +15795,7 @@
         <v>13</v>
       </c>
       <c r="D591" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E591" t="n">
         <v>12</v>
@@ -15827,7 +15827,7 @@
         <v>15</v>
       </c>
       <c r="F592" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G592" t="n">
         <v>14</v>
@@ -15847,7 +15847,7 @@
         <v>5</v>
       </c>
       <c r="D593" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E593" t="n">
         <v>8</v>
@@ -15873,13 +15873,13 @@
         <v>10</v>
       </c>
       <c r="D594" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E594" t="n">
         <v>12</v>
       </c>
       <c r="F594" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G594" t="n">
         <v>11</v>
@@ -15925,13 +15925,13 @@
         <v>4</v>
       </c>
       <c r="D596" t="n">
-        <v>5</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
       </c>
       <c r="F596" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G596" t="n">
         <v>6</v>
@@ -15977,7 +15977,7 @@
         <v>12</v>
       </c>
       <c r="D598" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -16009,7 +16009,7 @@
         <v>4</v>
       </c>
       <c r="F599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G599" t="n">
         <v>5</v>
@@ -16035,7 +16035,7 @@
         <v>15</v>
       </c>
       <c r="F600" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G600" t="n">
         <v>16</v>
@@ -16055,13 +16055,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D601" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E601" t="n">
         <v>6</v>
       </c>
       <c r="F601" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G601" t="n">
         <v>8</v>
@@ -16107,7 +16107,7 @@
         <v>15</v>
       </c>
       <c r="D603" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -16185,13 +16185,13 @@
         <v>8</v>
       </c>
       <c r="D606" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E606" t="n">
         <v>6</v>
       </c>
       <c r="F606" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G606" t="n">
         <v>7.000000000000001</v>
@@ -16289,13 +16289,13 @@
         <v>2</v>
       </c>
       <c r="D610" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E610" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F610" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G610" t="n">
         <v>5</v>
@@ -16347,7 +16347,7 @@
         <v>13</v>
       </c>
       <c r="F612" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G612" t="n">
         <v>12</v>
@@ -16367,13 +16367,13 @@
         <v>9</v>
       </c>
       <c r="D613" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E613" t="n">
         <v>9</v>
       </c>
       <c r="F613" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G613" t="n">
         <v>8</v>
@@ -16419,13 +16419,13 @@
         <v>12</v>
       </c>
       <c r="D615" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E615" t="n">
         <v>12</v>
       </c>
       <c r="F615" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G615" t="n">
         <v>11</v>
@@ -16451,7 +16451,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F616" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G616" t="n">
         <v>8</v>
@@ -16477,7 +16477,7 @@
         <v>13</v>
       </c>
       <c r="F617" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G617" t="n">
         <v>11</v>
@@ -16497,13 +16497,13 @@
         <v>12</v>
       </c>
       <c r="D618" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E618" t="n">
         <v>12</v>
       </c>
       <c r="F618" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G618" t="n">
         <v>11</v>
@@ -16523,13 +16523,13 @@
         <v>13</v>
       </c>
       <c r="D619" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E619" t="n">
         <v>11</v>
       </c>
       <c r="F619" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G619" t="n">
         <v>11</v>
@@ -16555,7 +16555,7 @@
         <v>14</v>
       </c>
       <c r="F620" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G620" t="n">
         <v>14</v>
@@ -16575,13 +16575,13 @@
         <v>13</v>
       </c>
       <c r="D621" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E621" t="n">
         <v>14</v>
       </c>
       <c r="F621" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G621" t="n">
         <v>14</v>
@@ -16601,7 +16601,7 @@
         <v>12</v>
       </c>
       <c r="D622" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E622" t="n">
         <v>10</v>
@@ -16633,7 +16633,7 @@
         <v>15</v>
       </c>
       <c r="F623" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G623" t="n">
         <v>13</v>
@@ -16659,7 +16659,7 @@
         <v>15</v>
       </c>
       <c r="F624" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G624" t="n">
         <v>14</v>
@@ -16737,7 +16737,7 @@
         <v>5</v>
       </c>
       <c r="F627" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G627" t="n">
         <v>4</v>
@@ -16763,7 +16763,7 @@
         <v>10</v>
       </c>
       <c r="F628" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G628" t="n">
         <v>12</v>
@@ -16789,7 +16789,7 @@
         <v>12</v>
       </c>
       <c r="F629" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G629" t="n">
         <v>11</v>
@@ -16809,13 +16809,13 @@
         <v>10</v>
       </c>
       <c r="D630" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E630" t="n">
         <v>9</v>
       </c>
       <c r="F630" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G630" t="n">
         <v>9</v>
@@ -16945,7 +16945,7 @@
         <v>12</v>
       </c>
       <c r="F635" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G635" t="n">
         <v>11</v>
@@ -16971,7 +16971,7 @@
         <v>13</v>
       </c>
       <c r="F636" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G636" t="n">
         <v>11</v>
@@ -16997,7 +16997,7 @@
         <v>12</v>
       </c>
       <c r="F637" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G637" t="n">
         <v>10</v>
@@ -17017,13 +17017,13 @@
         <v>8</v>
       </c>
       <c r="D638" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E638" t="n">
         <v>9</v>
       </c>
       <c r="F638" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G638" t="n">
         <v>9</v>
@@ -17049,7 +17049,7 @@
         <v>13</v>
       </c>
       <c r="F639" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G639" t="n">
         <v>11</v>
@@ -17075,7 +17075,7 @@
         <v>15</v>
       </c>
       <c r="F640" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G640" t="n">
         <v>15</v>
@@ -17095,13 +17095,13 @@
         <v>10</v>
       </c>
       <c r="D641" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
       </c>
       <c r="F641" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G641" t="n">
         <v>6</v>
@@ -17121,13 +17121,13 @@
         <v>8</v>
       </c>
       <c r="D642" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E642" t="n">
         <v>6</v>
       </c>
       <c r="F642" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G642" t="n">
         <v>7.000000000000001</v>
@@ -17147,7 +17147,7 @@
         <v>14</v>
       </c>
       <c r="D643" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E643" t="n">
         <v>15</v>
@@ -17205,7 +17205,7 @@
         <v>16</v>
       </c>
       <c r="F645" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G645" t="n">
         <v>15</v>
@@ -17231,7 +17231,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F646" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G646" t="n">
         <v>8</v>
@@ -17277,13 +17277,13 @@
         <v>12</v>
       </c>
       <c r="D648" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E648" t="n">
         <v>14</v>
       </c>
       <c r="F648" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G648" t="n">
         <v>12</v>
@@ -17309,7 +17309,7 @@
         <v>14</v>
       </c>
       <c r="F649" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G649" t="n">
         <v>12</v>
@@ -17335,7 +17335,7 @@
         <v>15</v>
       </c>
       <c r="F650" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G650" t="n">
         <v>16</v>
@@ -17361,7 +17361,7 @@
         <v>15</v>
       </c>
       <c r="F651" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G651" t="n">
         <v>14</v>
@@ -17381,13 +17381,13 @@
         <v>12</v>
       </c>
       <c r="D652" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E652" t="n">
         <v>11</v>
       </c>
       <c r="F652" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G652" t="n">
         <v>10</v>
@@ -17465,7 +17465,7 @@
         <v>15</v>
       </c>
       <c r="F655" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G655" t="n">
         <v>16</v>
@@ -17485,13 +17485,13 @@
         <v>9</v>
       </c>
       <c r="D656" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E656" t="n">
         <v>9</v>
       </c>
       <c r="F656" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G656" t="n">
         <v>10</v>
@@ -17517,7 +17517,7 @@
         <v>15</v>
       </c>
       <c r="F657" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G657" t="n">
         <v>16</v>
@@ -17543,7 +17543,7 @@
         <v>10</v>
       </c>
       <c r="F658" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G658" t="n">
         <v>10</v>
@@ -17563,7 +17563,7 @@
         <v>13</v>
       </c>
       <c r="D659" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -17589,7 +17589,7 @@
         <v>11</v>
       </c>
       <c r="D660" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E660" t="n">
         <v>11</v>
@@ -17647,7 +17647,7 @@
         <v>14</v>
       </c>
       <c r="F662" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G662" t="n">
         <v>13</v>
@@ -17673,7 +17673,7 @@
         <v>6</v>
       </c>
       <c r="F663" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G663" t="n">
         <v>6</v>
@@ -17699,7 +17699,7 @@
         <v>5</v>
       </c>
       <c r="F664" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G664" t="n">
         <v>5</v>
@@ -17751,7 +17751,7 @@
         <v>14</v>
       </c>
       <c r="F666" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G666" t="n">
         <v>13</v>
@@ -17797,7 +17797,7 @@
         <v>13</v>
       </c>
       <c r="D668" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -17829,7 +17829,7 @@
         <v>13</v>
       </c>
       <c r="F669" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G669" t="n">
         <v>12</v>
@@ -17875,7 +17875,7 @@
         <v>13</v>
       </c>
       <c r="D671" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E671" t="n">
         <v>12</v>
@@ -17933,7 +17933,7 @@
         <v>15</v>
       </c>
       <c r="F673" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G673" t="n">
         <v>16</v>
@@ -17953,7 +17953,7 @@
         <v>14</v>
       </c>
       <c r="D674" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E674" t="n">
         <v>12</v>
@@ -18011,7 +18011,7 @@
         <v>14</v>
       </c>
       <c r="F676" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G676" t="n">
         <v>12</v>
@@ -18063,7 +18063,7 @@
         <v>10</v>
       </c>
       <c r="F678" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G678" t="n">
         <v>10</v>
@@ -18141,7 +18141,7 @@
         <v>13</v>
       </c>
       <c r="F681" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G681" t="n">
         <v>11</v>
@@ -18167,7 +18167,7 @@
         <v>15</v>
       </c>
       <c r="F682" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G682" t="n">
         <v>13</v>
@@ -18297,7 +18297,7 @@
         <v>15</v>
       </c>
       <c r="F687" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G687" t="n">
         <v>15</v>
@@ -18323,7 +18323,7 @@
         <v>14</v>
       </c>
       <c r="F688" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G688" t="n">
         <v>13</v>
@@ -18349,7 +18349,7 @@
         <v>5</v>
       </c>
       <c r="F689" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G689" t="n">
         <v>4</v>
@@ -18375,7 +18375,7 @@
         <v>13</v>
       </c>
       <c r="F690" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G690" t="n">
         <v>11</v>
@@ -18427,7 +18427,7 @@
         <v>15</v>
       </c>
       <c r="F692" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G692" t="n">
         <v>14</v>
@@ -18447,7 +18447,7 @@
         <v>5</v>
       </c>
       <c r="D693" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -18473,13 +18473,13 @@
         <v>11</v>
       </c>
       <c r="D694" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E694" t="n">
         <v>11</v>
       </c>
       <c r="F694" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G694" t="n">
         <v>11</v>
@@ -18603,7 +18603,7 @@
         <v>10</v>
       </c>
       <c r="D699" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E699" t="n">
         <v>7.000000000000001</v>
@@ -18629,7 +18629,7 @@
         <v>15</v>
       </c>
       <c r="D700" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E700" t="n">
         <v>14</v>
@@ -18687,7 +18687,7 @@
         <v>5</v>
       </c>
       <c r="F702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G702" t="n">
         <v>4</v>
@@ -18707,13 +18707,13 @@
         <v>8</v>
       </c>
       <c r="D703" t="n">
-        <v>5</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
       </c>
       <c r="F703" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G703" t="n">
         <v>6</v>
@@ -18765,7 +18765,7 @@
         <v>14</v>
       </c>
       <c r="F705" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G705" t="n">
         <v>11</v>
@@ -18811,7 +18811,7 @@
         <v>13</v>
       </c>
       <c r="D707" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E707" t="n">
         <v>14</v>
@@ -18837,13 +18837,13 @@
         <v>11</v>
       </c>
       <c r="D708" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
       </c>
       <c r="F708" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G708" t="n">
         <v>9</v>
@@ -18863,13 +18863,13 @@
         <v>12</v>
       </c>
       <c r="D709" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E709" t="n">
         <v>14</v>
       </c>
       <c r="F709" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G709" t="n">
         <v>12</v>
@@ -18915,13 +18915,13 @@
         <v>14</v>
       </c>
       <c r="D711" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E711" t="n">
         <v>9</v>
       </c>
       <c r="F711" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G711" t="n">
         <v>10</v>
@@ -18947,7 +18947,7 @@
         <v>13</v>
       </c>
       <c r="F712" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G712" t="n">
         <v>11</v>
@@ -18973,7 +18973,7 @@
         <v>12</v>
       </c>
       <c r="F713" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G713" t="n">
         <v>11</v>
@@ -18999,7 +18999,7 @@
         <v>12</v>
       </c>
       <c r="F714" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G714" t="n">
         <v>10</v>
@@ -19019,13 +19019,13 @@
         <v>5</v>
       </c>
       <c r="D715" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E715" t="n">
         <v>8</v>
       </c>
       <c r="F715" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G715" t="n">
         <v>8</v>
@@ -19045,7 +19045,7 @@
         <v>12</v>
       </c>
       <c r="D716" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E716" t="n">
         <v>14</v>
@@ -19071,7 +19071,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D717" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E717" t="n">
         <v>12</v>
@@ -19103,7 +19103,7 @@
         <v>14</v>
       </c>
       <c r="F718" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G718" t="n">
         <v>12</v>
@@ -19123,13 +19123,13 @@
         <v>12</v>
       </c>
       <c r="D719" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
       </c>
       <c r="F719" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G719" t="n">
         <v>9</v>
@@ -19207,7 +19207,7 @@
         <v>15</v>
       </c>
       <c r="F722" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G722" t="n">
         <v>15</v>
@@ -19227,13 +19227,13 @@
         <v>1</v>
       </c>
       <c r="D723" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E723" t="n">
         <v>1</v>
       </c>
       <c r="F723" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G723" t="n">
         <v>2</v>
@@ -19253,13 +19253,13 @@
         <v>8</v>
       </c>
       <c r="D724" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E724" t="n">
         <v>9</v>
       </c>
       <c r="F724" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G724" t="n">
         <v>8</v>
@@ -19279,7 +19279,7 @@
         <v>9</v>
       </c>
       <c r="D725" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E725" t="n">
         <v>7.000000000000001</v>
@@ -19305,13 +19305,13 @@
         <v>10</v>
       </c>
       <c r="D726" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E726" t="n">
         <v>11</v>
       </c>
       <c r="F726" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G726" t="n">
         <v>10</v>
@@ -19331,7 +19331,7 @@
         <v>13</v>
       </c>
       <c r="D727" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E727" t="n">
         <v>14</v>
@@ -19363,7 +19363,7 @@
         <v>16</v>
       </c>
       <c r="F728" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G728" t="n">
         <v>15</v>
@@ -19435,7 +19435,7 @@
         <v>12</v>
       </c>
       <c r="D731" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E731" t="n">
         <v>12</v>
@@ -19487,13 +19487,13 @@
         <v>9</v>
       </c>
       <c r="D733" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E733" t="n">
         <v>6</v>
       </c>
       <c r="F733" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G733" t="n">
         <v>6</v>
@@ -19519,7 +19519,7 @@
         <v>15</v>
       </c>
       <c r="F734" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G734" t="n">
         <v>15</v>
@@ -19539,7 +19539,7 @@
         <v>5</v>
       </c>
       <c r="D735" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E735" t="n">
         <v>3</v>
@@ -19565,13 +19565,13 @@
         <v>6</v>
       </c>
       <c r="D736" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E736" t="n">
         <v>12</v>
       </c>
       <c r="F736" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G736" t="n">
         <v>9</v>
@@ -19643,7 +19643,7 @@
         <v>3</v>
       </c>
       <c r="D739" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E739" t="n">
         <v>2</v>
@@ -19675,7 +19675,7 @@
         <v>10</v>
       </c>
       <c r="F740" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G740" t="n">
         <v>10</v>
@@ -19721,7 +19721,7 @@
         <v>15</v>
       </c>
       <c r="D742" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E742" t="n">
         <v>14</v>
@@ -19753,7 +19753,7 @@
         <v>14</v>
       </c>
       <c r="F743" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G743" t="n">
         <v>12</v>
@@ -19779,7 +19779,7 @@
         <v>15</v>
       </c>
       <c r="F744" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G744" t="n">
         <v>14</v>
@@ -19857,7 +19857,7 @@
         <v>11</v>
       </c>
       <c r="F747" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G747" t="n">
         <v>10</v>
@@ -19877,13 +19877,13 @@
         <v>5</v>
       </c>
       <c r="D748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E748" t="n">
         <v>5</v>
       </c>
       <c r="F748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G748" t="n">
         <v>5</v>
@@ -19909,7 +19909,7 @@
         <v>9</v>
       </c>
       <c r="F749" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G749" t="n">
         <v>9</v>
@@ -19935,7 +19935,7 @@
         <v>13</v>
       </c>
       <c r="F750" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G750" t="n">
         <v>12</v>
@@ -19955,13 +19955,13 @@
         <v>6</v>
       </c>
       <c r="D751" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
       </c>
       <c r="F751" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G751" t="n">
         <v>6</v>
@@ -19981,13 +19981,13 @@
         <v>12</v>
       </c>
       <c r="D752" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
       </c>
       <c r="F752" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G752" t="n">
         <v>12</v>
@@ -20007,7 +20007,7 @@
         <v>10</v>
       </c>
       <c r="D753" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E753" t="n">
         <v>9</v>
@@ -20065,7 +20065,7 @@
         <v>14</v>
       </c>
       <c r="F755" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G755" t="n">
         <v>12</v>
@@ -20091,7 +20091,7 @@
         <v>14</v>
       </c>
       <c r="F756" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G756" t="n">
         <v>12</v>
@@ -20143,7 +20143,7 @@
         <v>10</v>
       </c>
       <c r="F758" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G758" t="n">
         <v>10</v>
@@ -20215,7 +20215,7 @@
         <v>12</v>
       </c>
       <c r="D761" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E761" t="n">
         <v>8</v>
@@ -20241,13 +20241,13 @@
         <v>9</v>
       </c>
       <c r="D762" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E762" t="n">
         <v>4</v>
       </c>
       <c r="F762" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G762" t="n">
         <v>3</v>
@@ -20273,7 +20273,7 @@
         <v>9</v>
       </c>
       <c r="F763" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G763" t="n">
         <v>11</v>
@@ -20299,7 +20299,7 @@
         <v>9</v>
       </c>
       <c r="F764" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G764" t="n">
         <v>9</v>
@@ -20319,7 +20319,7 @@
         <v>13</v>
       </c>
       <c r="D765" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E765" t="n">
         <v>11</v>
@@ -20351,7 +20351,7 @@
         <v>15</v>
       </c>
       <c r="F766" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G766" t="n">
         <v>14</v>
@@ -20377,7 +20377,7 @@
         <v>15</v>
       </c>
       <c r="F767" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G767" t="n">
         <v>13</v>
@@ -20403,7 +20403,7 @@
         <v>13</v>
       </c>
       <c r="F768" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G768" t="n">
         <v>12</v>
@@ -20449,7 +20449,7 @@
         <v>10</v>
       </c>
       <c r="D770" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E770" t="n">
         <v>11</v>
@@ -20475,7 +20475,7 @@
         <v>12</v>
       </c>
       <c r="D771" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E771" t="n">
         <v>11</v>
@@ -20527,7 +20527,7 @@
         <v>9</v>
       </c>
       <c r="D773" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -20559,7 +20559,7 @@
         <v>10</v>
       </c>
       <c r="F774" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G774" t="n">
         <v>10</v>
@@ -20683,13 +20683,13 @@
         <v>4</v>
       </c>
       <c r="D779" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E779" t="n">
         <v>6</v>
       </c>
       <c r="F779" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G779" t="n">
         <v>5</v>
@@ -20735,13 +20735,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D781" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
       </c>
       <c r="F781" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G781" t="n">
         <v>8</v>
@@ -20761,13 +20761,13 @@
         <v>0</v>
       </c>
       <c r="D782" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
       </c>
       <c r="F782" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G782" t="n">
         <v>6</v>
@@ -20793,7 +20793,7 @@
         <v>14</v>
       </c>
       <c r="F783" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G783" t="n">
         <v>13</v>
@@ -20839,7 +20839,7 @@
         <v>14</v>
       </c>
       <c r="D785" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -20871,7 +20871,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F786" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G786" t="n">
         <v>8</v>
@@ -20897,7 +20897,7 @@
         <v>16</v>
       </c>
       <c r="F787" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G787" t="n">
         <v>16</v>
@@ -20917,13 +20917,13 @@
         <v>11</v>
       </c>
       <c r="D788" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E788" t="n">
         <v>11</v>
       </c>
       <c r="F788" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G788" t="n">
         <v>10</v>
@@ -20949,7 +20949,7 @@
         <v>14</v>
       </c>
       <c r="F789" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G789" t="n">
         <v>13</v>
@@ -20969,13 +20969,13 @@
         <v>1</v>
       </c>
       <c r="D790" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E790" t="n">
         <v>2</v>
       </c>
       <c r="F790" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G790" t="n">
         <v>2</v>
@@ -20995,13 +20995,13 @@
         <v>1</v>
       </c>
       <c r="D791" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E791" t="n">
         <v>2</v>
       </c>
       <c r="F791" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G791" t="n">
         <v>3</v>
@@ -21021,13 +21021,13 @@
         <v>12</v>
       </c>
       <c r="D792" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E792" t="n">
         <v>10</v>
       </c>
       <c r="F792" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G792" t="n">
         <v>9</v>
@@ -21053,7 +21053,7 @@
         <v>15</v>
       </c>
       <c r="F793" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G793" t="n">
         <v>14</v>
@@ -21079,7 +21079,7 @@
         <v>16</v>
       </c>
       <c r="F794" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G794" t="n">
         <v>15</v>
@@ -21125,13 +21125,13 @@
         <v>13</v>
       </c>
       <c r="D796" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E796" t="n">
         <v>14</v>
       </c>
       <c r="F796" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G796" t="n">
         <v>13</v>
@@ -21151,13 +21151,13 @@
         <v>13</v>
       </c>
       <c r="D797" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E797" t="n">
         <v>11</v>
       </c>
       <c r="F797" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G797" t="n">
         <v>10</v>
@@ -21203,13 +21203,13 @@
         <v>14</v>
       </c>
       <c r="D799" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
       </c>
       <c r="F799" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G799" t="n">
         <v>12</v>
@@ -21235,7 +21235,7 @@
         <v>15</v>
       </c>
       <c r="F800" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G800" t="n">
         <v>15</v>
@@ -21255,13 +21255,13 @@
         <v>3</v>
       </c>
       <c r="D801" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E801" t="n">
         <v>6</v>
       </c>
       <c r="F801" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G801" t="n">
         <v>4</v>
@@ -21287,7 +21287,7 @@
         <v>15</v>
       </c>
       <c r="F802" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G802" t="n">
         <v>14</v>
@@ -21333,7 +21333,7 @@
         <v>11</v>
       </c>
       <c r="D804" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E804" t="n">
         <v>8</v>
@@ -21365,7 +21365,7 @@
         <v>15</v>
       </c>
       <c r="F805" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G805" t="n">
         <v>13</v>
@@ -21385,13 +21385,13 @@
         <v>12</v>
       </c>
       <c r="D806" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E806" t="n">
         <v>14</v>
       </c>
       <c r="F806" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G806" t="n">
         <v>12</v>
@@ -21417,7 +21417,7 @@
         <v>12</v>
       </c>
       <c r="F807" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G807" t="n">
         <v>13</v>
@@ -21469,7 +21469,7 @@
         <v>12</v>
       </c>
       <c r="F809" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G809" t="n">
         <v>12</v>
@@ -21495,7 +21495,7 @@
         <v>16</v>
       </c>
       <c r="F810" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G810" t="n">
         <v>15</v>
@@ -21547,7 +21547,7 @@
         <v>15</v>
       </c>
       <c r="F812" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G812" t="n">
         <v>13</v>
@@ -21567,7 +21567,7 @@
         <v>12</v>
       </c>
       <c r="D813" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -21593,7 +21593,7 @@
         <v>10</v>
       </c>
       <c r="D814" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -21619,7 +21619,7 @@
         <v>8</v>
       </c>
       <c r="D815" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E815" t="n">
         <v>11</v>
@@ -21645,13 +21645,13 @@
         <v>15</v>
       </c>
       <c r="D816" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E816" t="n">
         <v>11</v>
       </c>
       <c r="F816" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G816" t="n">
         <v>11</v>
@@ -21729,7 +21729,7 @@
         <v>16</v>
       </c>
       <c r="F819" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G819" t="n">
         <v>15</v>
@@ -21749,7 +21749,7 @@
         <v>13</v>
       </c>
       <c r="D820" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E820" t="n">
         <v>10</v>
@@ -21781,7 +21781,7 @@
         <v>14</v>
       </c>
       <c r="F821" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G821" t="n">
         <v>13</v>
@@ -21801,7 +21801,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D822" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E822" t="n">
         <v>11</v>
@@ -21879,7 +21879,7 @@
         <v>9</v>
       </c>
       <c r="D825" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E825" t="n">
         <v>5</v>
@@ -21937,7 +21937,7 @@
         <v>13</v>
       </c>
       <c r="F827" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G827" t="n">
         <v>11</v>
@@ -21963,7 +21963,7 @@
         <v>13</v>
       </c>
       <c r="F828" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G828" t="n">
         <v>12</v>
@@ -21989,7 +21989,7 @@
         <v>14</v>
       </c>
       <c r="F829" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G829" t="n">
         <v>12</v>
@@ -22009,13 +22009,13 @@
         <v>15</v>
       </c>
       <c r="D830" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E830" t="n">
         <v>14</v>
       </c>
       <c r="F830" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G830" t="n">
         <v>14</v>
@@ -22035,13 +22035,13 @@
         <v>10</v>
       </c>
       <c r="D831" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
       </c>
       <c r="F831" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G831" t="n">
         <v>12</v>
@@ -22093,7 +22093,7 @@
         <v>13</v>
       </c>
       <c r="F833" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G833" t="n">
         <v>11</v>
@@ -22113,13 +22113,13 @@
         <v>8</v>
       </c>
       <c r="D834" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E834" t="n">
         <v>6</v>
       </c>
       <c r="F834" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G834" t="n">
         <v>7.000000000000001</v>
@@ -22139,13 +22139,13 @@
         <v>14</v>
       </c>
       <c r="D835" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E835" t="n">
         <v>15</v>
       </c>
       <c r="F835" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G835" t="n">
         <v>13</v>
@@ -22171,7 +22171,7 @@
         <v>12</v>
       </c>
       <c r="F836" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G836" t="n">
         <v>12</v>
@@ -22223,7 +22223,7 @@
         <v>16</v>
       </c>
       <c r="F838" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G838" t="n">
         <v>15</v>
@@ -22243,13 +22243,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D839" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E839" t="n">
         <v>5</v>
       </c>
       <c r="F839" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G839" t="n">
         <v>6</v>
@@ -22327,7 +22327,7 @@
         <v>15</v>
       </c>
       <c r="F842" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G842" t="n">
         <v>14</v>
@@ -22353,7 +22353,7 @@
         <v>4</v>
       </c>
       <c r="F843" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G843" t="n">
         <v>4</v>
@@ -22373,7 +22373,7 @@
         <v>15</v>
       </c>
       <c r="D844" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E844" t="n">
         <v>14</v>
@@ -22405,7 +22405,7 @@
         <v>9</v>
       </c>
       <c r="F845" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G845" t="n">
         <v>10</v>
@@ -22425,7 +22425,7 @@
         <v>0</v>
       </c>
       <c r="D846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E846" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         <v>13</v>
       </c>
       <c r="F849" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G849" t="n">
         <v>11</v>
@@ -22535,7 +22535,7 @@
         <v>13</v>
       </c>
       <c r="F850" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G850" t="n">
         <v>11</v>
@@ -22561,7 +22561,7 @@
         <v>13</v>
       </c>
       <c r="F851" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G851" t="n">
         <v>11</v>
@@ -22607,13 +22607,13 @@
         <v>11</v>
       </c>
       <c r="D853" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E853" t="n">
         <v>12</v>
       </c>
       <c r="F853" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G853" t="n">
         <v>11</v>
@@ -22659,13 +22659,13 @@
         <v>12</v>
       </c>
       <c r="D855" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E855" t="n">
         <v>12</v>
       </c>
       <c r="F855" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G855" t="n">
         <v>10</v>
@@ -22691,7 +22691,7 @@
         <v>14</v>
       </c>
       <c r="F856" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G856" t="n">
         <v>12</v>
@@ -22711,13 +22711,13 @@
         <v>10</v>
       </c>
       <c r="D857" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E857" t="n">
         <v>8</v>
       </c>
       <c r="F857" t="n">
-        <v>7.000000000000001</v>
+        <v>12</v>
       </c>
       <c r="G857" t="n">
         <v>7.000000000000001</v>
@@ -22737,13 +22737,13 @@
         <v>12</v>
       </c>
       <c r="D858" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E858" t="n">
         <v>10</v>
       </c>
       <c r="F858" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G858" t="n">
         <v>10</v>
@@ -22769,7 +22769,7 @@
         <v>15</v>
       </c>
       <c r="F859" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G859" t="n">
         <v>13</v>
@@ -22815,13 +22815,13 @@
         <v>5</v>
       </c>
       <c r="D861" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E861" t="n">
         <v>6</v>
       </c>
       <c r="F861" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G861" t="n">
         <v>6</v>
@@ -22945,7 +22945,7 @@
         <v>13</v>
       </c>
       <c r="D866" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E866" t="n">
         <v>14</v>
@@ -22977,7 +22977,7 @@
         <v>14</v>
       </c>
       <c r="F867" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G867" t="n">
         <v>12</v>
@@ -23023,13 +23023,13 @@
         <v>6</v>
       </c>
       <c r="D869" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E869" t="n">
         <v>3</v>
       </c>
       <c r="F869" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G869" t="n">
         <v>3</v>
@@ -23049,7 +23049,7 @@
         <v>14</v>
       </c>
       <c r="D870" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E870" t="n">
         <v>14</v>
@@ -23107,7 +23107,7 @@
         <v>16</v>
       </c>
       <c r="F872" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G872" t="n">
         <v>14</v>
@@ -23127,13 +23127,13 @@
         <v>13</v>
       </c>
       <c r="D873" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
       </c>
       <c r="F873" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G873" t="n">
         <v>11</v>
@@ -23153,7 +23153,7 @@
         <v>6</v>
       </c>
       <c r="D874" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E874" t="n">
         <v>3</v>
@@ -23211,7 +23211,7 @@
         <v>6</v>
       </c>
       <c r="F876" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G876" t="n">
         <v>7.000000000000001</v>
@@ -23231,13 +23231,13 @@
         <v>8</v>
       </c>
       <c r="D877" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E877" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F877" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G877" t="n">
         <v>9</v>
@@ -23257,13 +23257,13 @@
         <v>9</v>
       </c>
       <c r="D878" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E878" t="n">
         <v>11</v>
       </c>
       <c r="F878" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G878" t="n">
         <v>10</v>
@@ -23283,13 +23283,13 @@
         <v>14</v>
       </c>
       <c r="D879" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E879" t="n">
         <v>14</v>
       </c>
       <c r="F879" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G879" t="n">
         <v>14</v>
@@ -23309,13 +23309,13 @@
         <v>14</v>
       </c>
       <c r="D880" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E880" t="n">
         <v>14</v>
       </c>
       <c r="F880" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G880" t="n">
         <v>12</v>
@@ -23335,13 +23335,13 @@
         <v>11</v>
       </c>
       <c r="D881" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
       </c>
       <c r="F881" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G881" t="n">
         <v>10</v>
@@ -23413,13 +23413,13 @@
         <v>9</v>
       </c>
       <c r="D884" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E884" t="n">
         <v>11</v>
       </c>
       <c r="F884" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G884" t="n">
         <v>10</v>
@@ -23439,13 +23439,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D885" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
       </c>
       <c r="F885" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G885" t="n">
         <v>8</v>
@@ -23465,13 +23465,13 @@
         <v>15</v>
       </c>
       <c r="D886" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
       </c>
       <c r="F886" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G886" t="n">
         <v>13</v>
@@ -23491,13 +23491,13 @@
         <v>3</v>
       </c>
       <c r="D887" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E887" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F887" t="n">
-        <v>12</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G887" t="n">
         <v>7.000000000000001</v>
@@ -23517,7 +23517,7 @@
         <v>13</v>
       </c>
       <c r="D888" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E888" t="n">
         <v>15</v>
@@ -23549,7 +23549,7 @@
         <v>15</v>
       </c>
       <c r="F889" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G889" t="n">
         <v>14</v>
@@ -23621,13 +23621,13 @@
         <v>11</v>
       </c>
       <c r="D892" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E892" t="n">
         <v>11</v>
       </c>
       <c r="F892" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G892" t="n">
         <v>11</v>
@@ -23653,7 +23653,7 @@
         <v>15</v>
       </c>
       <c r="F893" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G893" t="n">
         <v>13</v>
@@ -23673,13 +23673,13 @@
         <v>9</v>
       </c>
       <c r="D894" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E894" t="n">
         <v>11</v>
       </c>
       <c r="F894" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G894" t="n">
         <v>10</v>
@@ -23725,7 +23725,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D896" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E896" t="n">
         <v>12</v>
@@ -23803,7 +23803,7 @@
         <v>13</v>
       </c>
       <c r="D899" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E899" t="n">
         <v>10</v>
@@ -23861,7 +23861,7 @@
         <v>15</v>
       </c>
       <c r="F901" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G901" t="n">
         <v>14</v>
@@ -23913,7 +23913,7 @@
         <v>16</v>
       </c>
       <c r="F903" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G903" t="n">
         <v>16</v>
@@ -23933,13 +23933,13 @@
         <v>15</v>
       </c>
       <c r="D904" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
       </c>
       <c r="F904" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G904" t="n">
         <v>12</v>
@@ -23965,7 +23965,7 @@
         <v>15</v>
       </c>
       <c r="F905" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G905" t="n">
         <v>15</v>
@@ -23985,7 +23985,7 @@
         <v>0</v>
       </c>
       <c r="D906" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -24017,7 +24017,7 @@
         <v>16</v>
       </c>
       <c r="F907" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G907" t="n">
         <v>15</v>
@@ -24043,7 +24043,7 @@
         <v>15</v>
       </c>
       <c r="F908" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G908" t="n">
         <v>14</v>
@@ -24063,13 +24063,13 @@
         <v>11</v>
       </c>
       <c r="D909" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E909" t="n">
         <v>11</v>
       </c>
       <c r="F909" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G909" t="n">
         <v>11</v>
@@ -24095,7 +24095,7 @@
         <v>14</v>
       </c>
       <c r="F910" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G910" t="n">
         <v>14</v>
@@ -24121,7 +24121,7 @@
         <v>14</v>
       </c>
       <c r="F911" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G911" t="n">
         <v>13</v>
@@ -24147,7 +24147,7 @@
         <v>15</v>
       </c>
       <c r="F912" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G912" t="n">
         <v>14</v>
@@ -24173,7 +24173,7 @@
         <v>13</v>
       </c>
       <c r="F913" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G913" t="n">
         <v>11</v>
@@ -24225,7 +24225,7 @@
         <v>11</v>
       </c>
       <c r="F915" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G915" t="n">
         <v>10</v>
@@ -24271,7 +24271,7 @@
         <v>13</v>
       </c>
       <c r="D917" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -24297,13 +24297,13 @@
         <v>13</v>
       </c>
       <c r="D918" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E918" t="n">
         <v>10</v>
       </c>
       <c r="F918" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G918" t="n">
         <v>9</v>
@@ -24323,7 +24323,7 @@
         <v>8</v>
       </c>
       <c r="D919" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E919" t="n">
         <v>7.000000000000001</v>
@@ -24349,13 +24349,13 @@
         <v>10</v>
       </c>
       <c r="D920" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
       </c>
       <c r="F920" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G920" t="n">
         <v>9</v>
@@ -24381,7 +24381,7 @@
         <v>13</v>
       </c>
       <c r="F921" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G921" t="n">
         <v>12</v>
@@ -24401,7 +24401,7 @@
         <v>13</v>
       </c>
       <c r="D922" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -24459,7 +24459,7 @@
         <v>15</v>
       </c>
       <c r="F924" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G924" t="n">
         <v>13</v>
@@ -24511,7 +24511,7 @@
         <v>15</v>
       </c>
       <c r="F926" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G926" t="n">
         <v>14</v>
@@ -24537,7 +24537,7 @@
         <v>15</v>
       </c>
       <c r="F927" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G927" t="n">
         <v>14</v>
@@ -24563,7 +24563,7 @@
         <v>12</v>
       </c>
       <c r="F928" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G928" t="n">
         <v>11</v>
@@ -24609,7 +24609,7 @@
         <v>12</v>
       </c>
       <c r="D930" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -24661,7 +24661,7 @@
         <v>11</v>
       </c>
       <c r="D932" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E932" t="n">
         <v>11</v>
@@ -24687,13 +24687,13 @@
         <v>11</v>
       </c>
       <c r="D933" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E933" t="n">
         <v>8</v>
       </c>
       <c r="F933" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G933" t="n">
         <v>8</v>
@@ -24719,7 +24719,7 @@
         <v>14</v>
       </c>
       <c r="F934" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G934" t="n">
         <v>11</v>
@@ -24745,7 +24745,7 @@
         <v>6</v>
       </c>
       <c r="F935" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G935" t="n">
         <v>5</v>
@@ -24797,7 +24797,7 @@
         <v>15</v>
       </c>
       <c r="F937" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G937" t="n">
         <v>13</v>
@@ -24823,7 +24823,7 @@
         <v>15</v>
       </c>
       <c r="F938" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G938" t="n">
         <v>14</v>
@@ -24843,7 +24843,7 @@
         <v>8</v>
       </c>
       <c r="D939" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -24869,13 +24869,13 @@
         <v>11</v>
       </c>
       <c r="D940" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E940" t="n">
         <v>10</v>
       </c>
       <c r="F940" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G940" t="n">
         <v>9</v>
@@ -24901,7 +24901,7 @@
         <v>15</v>
       </c>
       <c r="F941" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G941" t="n">
         <v>15</v>
@@ -24927,7 +24927,7 @@
         <v>14</v>
       </c>
       <c r="F942" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G942" t="n">
         <v>11</v>
@@ -25031,7 +25031,7 @@
         <v>13</v>
       </c>
       <c r="F946" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G946" t="n">
         <v>11</v>
@@ -25135,7 +25135,7 @@
         <v>15</v>
       </c>
       <c r="F950" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G950" t="n">
         <v>14</v>
@@ -25181,7 +25181,7 @@
         <v>13</v>
       </c>
       <c r="D952" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E952" t="n">
         <v>12</v>
@@ -25213,7 +25213,7 @@
         <v>15</v>
       </c>
       <c r="F953" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G953" t="n">
         <v>14</v>
@@ -25239,7 +25239,7 @@
         <v>12</v>
       </c>
       <c r="F954" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G954" t="n">
         <v>10</v>
@@ -25291,7 +25291,7 @@
         <v>14</v>
       </c>
       <c r="F956" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G956" t="n">
         <v>12</v>
@@ -25317,7 +25317,7 @@
         <v>14</v>
       </c>
       <c r="F957" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G957" t="n">
         <v>13</v>
@@ -25343,7 +25343,7 @@
         <v>6</v>
       </c>
       <c r="F958" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G958" t="n">
         <v>7.000000000000001</v>
@@ -25369,7 +25369,7 @@
         <v>12</v>
       </c>
       <c r="F959" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G959" t="n">
         <v>12</v>
@@ -25389,7 +25389,7 @@
         <v>13</v>
       </c>
       <c r="D960" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E960" t="n">
         <v>12</v>
@@ -25415,13 +25415,13 @@
         <v>12</v>
       </c>
       <c r="D961" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
       </c>
       <c r="F961" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G961" t="n">
         <v>12</v>
@@ -25441,13 +25441,13 @@
         <v>1</v>
       </c>
       <c r="D962" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E962" t="n">
         <v>2</v>
       </c>
       <c r="F962" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G962" t="n">
         <v>4</v>
